--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1205744.091729322</v>
+        <v>-1208550.037784513</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>186.5964461652599</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.5224906587257</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>71.73533428546371</v>
       </c>
       <c r="S2" t="n">
-        <v>180.675913495203</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.6509107473003</v>
+        <v>151.3902422684724</v>
       </c>
       <c r="U2" t="n">
         <v>251.246145173891</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>159.716863020091</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>136.6780005204371</v>
       </c>
       <c r="H3" t="n">
-        <v>11.44566919658248</v>
+        <v>105.8079545549728</v>
       </c>
       <c r="I3" t="n">
-        <v>66.48301159802715</v>
+        <v>66.48301159802706</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.83742364780752</v>
+        <v>58.83742364780736</v>
       </c>
       <c r="S3" t="n">
-        <v>159.3214913575833</v>
+        <v>58.05621694109224</v>
       </c>
       <c r="T3" t="n">
         <v>197.4822295952212</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8975980913187</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>88.51442539763043</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>194.2181060748909</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>66.95074126956614</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>60.40850741667634</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +981,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>87.10509000261204</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>110.9728016511685</v>
       </c>
       <c r="H6" t="n">
         <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>27.31222173268784</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>112.2490040174678</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>95.72014295997062</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>147.0861573169521</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>124.3919772218589</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>161.6782090600968</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>73.56194264362971</v>
+        <v>140.2947128462284</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186394</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>2.43893679709444e-12</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>122.8704329402498</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.27150084978962</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>12.35680705404158</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>51.35059460820207</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>3.475606507923219</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>82.85993176807962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>41.1667312069662</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>261.8890829640565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>194.7686697604218</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>125.2474982886078</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3740,13 +3740,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,10 +4135,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4147,13 +4147,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>628.8072019415113</v>
+        <v>622.7422266093943</v>
       </c>
       <c r="C2" t="n">
-        <v>628.8072019415113</v>
+        <v>622.7422266093943</v>
       </c>
       <c r="D2" t="n">
-        <v>628.8072019415113</v>
+        <v>622.7422266093943</v>
       </c>
       <c r="E2" t="n">
-        <v>243.018949343267</v>
+        <v>622.7422266093943</v>
       </c>
       <c r="F2" t="n">
-        <v>236.0734485940636</v>
+        <v>211.7563218197866</v>
       </c>
       <c r="G2" t="n">
-        <v>47.59218984127573</v>
+        <v>211.7563218197866</v>
       </c>
       <c r="H2" t="n">
-        <v>47.59218984127573</v>
+        <v>211.7563218197866</v>
       </c>
       <c r="I2" t="n">
-        <v>47.59218984127573</v>
+        <v>47.59218984127584</v>
       </c>
       <c r="J2" t="n">
-        <v>140.2766257379396</v>
+        <v>140.2766257379401</v>
       </c>
       <c r="K2" t="n">
-        <v>399.931373433273</v>
+        <v>399.9313734332741</v>
       </c>
       <c r="L2" t="n">
-        <v>774.3326757349382</v>
+        <v>774.33267573494</v>
       </c>
       <c r="M2" t="n">
-        <v>1207.532809426324</v>
+        <v>1207.532809426327</v>
       </c>
       <c r="N2" t="n">
-        <v>1633.110576631819</v>
+        <v>1633.110576631823</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.783956408642</v>
+        <v>1989.783956408647</v>
       </c>
       <c r="P2" t="n">
-        <v>2256.522051210342</v>
+        <v>2256.522051210347</v>
       </c>
       <c r="Q2" t="n">
-        <v>2379.609492063786</v>
+        <v>2379.609492063792</v>
       </c>
       <c r="R2" t="n">
-        <v>2379.609492063786</v>
+        <v>2307.149558442111</v>
       </c>
       <c r="S2" t="n">
-        <v>2197.108569341359</v>
+        <v>2307.149558442111</v>
       </c>
       <c r="T2" t="n">
-        <v>1977.259164546106</v>
+        <v>2154.230121807291</v>
       </c>
       <c r="U2" t="n">
-        <v>1723.475179521974</v>
+        <v>1900.446136783159</v>
       </c>
       <c r="V2" t="n">
-        <v>1392.412292178403</v>
+        <v>1739.1159721164</v>
       </c>
       <c r="W2" t="n">
-        <v>1392.412292178403</v>
+        <v>1386.347316846286</v>
       </c>
       <c r="X2" t="n">
-        <v>1018.946533917323</v>
+        <v>1012.881558585206</v>
       </c>
       <c r="Y2" t="n">
-        <v>628.8072019415113</v>
+        <v>622.7422266093943</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>893.5260673329788</v>
+        <v>988.8415070889288</v>
       </c>
       <c r="C3" t="n">
-        <v>719.0730380518518</v>
+        <v>814.3884778078018</v>
       </c>
       <c r="D3" t="n">
-        <v>570.1386283906005</v>
+        <v>665.4540681465505</v>
       </c>
       <c r="E3" t="n">
-        <v>410.901173385145</v>
+        <v>506.216613141095</v>
       </c>
       <c r="F3" t="n">
-        <v>264.36661541203</v>
+        <v>359.6820551679799</v>
       </c>
       <c r="G3" t="n">
-        <v>126.3080290277501</v>
+        <v>221.6234687837</v>
       </c>
       <c r="H3" t="n">
-        <v>114.7467470110001</v>
+        <v>114.7467470110002</v>
       </c>
       <c r="I3" t="n">
-        <v>47.59218984127573</v>
+        <v>47.59218984127584</v>
       </c>
       <c r="J3" t="n">
-        <v>109.1010252263743</v>
+        <v>109.1010252263747</v>
       </c>
       <c r="K3" t="n">
-        <v>340.8502649974758</v>
+        <v>340.8502649974766</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8701137890707</v>
+        <v>713.8701137890721</v>
       </c>
       <c r="M3" t="n">
-        <v>1201.145904759554</v>
+        <v>1201.145904759557</v>
       </c>
       <c r="N3" t="n">
-        <v>1717.025449370116</v>
+        <v>1512.141402063476</v>
       </c>
       <c r="O3" t="n">
-        <v>2122.53876918799</v>
+        <v>1917.65472188135</v>
       </c>
       <c r="P3" t="n">
-        <v>2379.609492063786</v>
+        <v>2226.111844043581</v>
       </c>
       <c r="Q3" t="n">
-        <v>2379.609492063786</v>
+        <v>2379.609492063792</v>
       </c>
       <c r="R3" t="n">
-        <v>2320.177751005395</v>
+        <v>2320.177751005401</v>
       </c>
       <c r="S3" t="n">
-        <v>2159.246951654301</v>
+        <v>2261.53510763056</v>
       </c>
       <c r="T3" t="n">
-        <v>1959.769952063168</v>
+        <v>2062.058108039428</v>
       </c>
       <c r="U3" t="n">
-        <v>1731.590560051735</v>
+        <v>2062.058108039428</v>
       </c>
       <c r="V3" t="n">
-        <v>1731.590560051735</v>
+        <v>1826.905999807685</v>
       </c>
       <c r="W3" t="n">
-        <v>1477.353203323534</v>
+        <v>1572.668643079483</v>
       </c>
       <c r="X3" t="n">
-        <v>1269.501703118001</v>
+        <v>1364.817142873951</v>
       </c>
       <c r="Y3" t="n">
-        <v>1061.741404353047</v>
+        <v>1157.056844108997</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.59218984127573</v>
+        <v>195.505283423669</v>
       </c>
       <c r="C4" t="n">
-        <v>47.59218984127573</v>
+        <v>195.505283423669</v>
       </c>
       <c r="D4" t="n">
-        <v>47.59218984127573</v>
+        <v>195.505283423669</v>
       </c>
       <c r="E4" t="n">
-        <v>47.59218984127573</v>
+        <v>47.59218984127584</v>
       </c>
       <c r="F4" t="n">
-        <v>47.59218984127573</v>
+        <v>47.59218984127584</v>
       </c>
       <c r="G4" t="n">
-        <v>47.59218984127573</v>
+        <v>47.59218984127584</v>
       </c>
       <c r="H4" t="n">
-        <v>47.59218984127573</v>
+        <v>47.59218984127584</v>
       </c>
       <c r="I4" t="n">
-        <v>47.59218984127573</v>
+        <v>47.59218984127584</v>
       </c>
       <c r="J4" t="n">
-        <v>47.59218984127573</v>
+        <v>47.59218984127584</v>
       </c>
       <c r="K4" t="n">
-        <v>89.72043354165868</v>
+        <v>89.72043354165905</v>
       </c>
       <c r="L4" t="n">
-        <v>199.1565158344536</v>
+        <v>199.1565158344542</v>
       </c>
       <c r="M4" t="n">
-        <v>324.9306436357418</v>
+        <v>324.9306436357429</v>
       </c>
       <c r="N4" t="n">
-        <v>453.1487602187668</v>
+        <v>453.1487602187681</v>
       </c>
       <c r="O4" t="n">
-        <v>555.5626480722336</v>
+        <v>555.5626480722352</v>
       </c>
       <c r="P4" t="n">
-        <v>619.6747394478369</v>
+        <v>619.6747394478388</v>
       </c>
       <c r="Q4" t="n">
-        <v>619.6747394478369</v>
+        <v>619.6747394478388</v>
       </c>
       <c r="R4" t="n">
-        <v>619.6747394478369</v>
+        <v>619.6747394478388</v>
       </c>
       <c r="S4" t="n">
-        <v>619.6747394478369</v>
+        <v>619.6747394478388</v>
       </c>
       <c r="T4" t="n">
-        <v>619.6747394478369</v>
+        <v>619.6747394478388</v>
       </c>
       <c r="U4" t="n">
-        <v>530.2662289451799</v>
+        <v>619.6747394478388</v>
       </c>
       <c r="V4" t="n">
-        <v>275.5817407392931</v>
+        <v>423.4948343216863</v>
       </c>
       <c r="W4" t="n">
-        <v>275.5817407392931</v>
+        <v>423.4948343216863</v>
       </c>
       <c r="X4" t="n">
-        <v>47.59218984127573</v>
+        <v>195.505283423669</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.59218984127573</v>
+        <v>195.505283423669</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1992.33694126659</v>
+        <v>829.8306665263415</v>
       </c>
       <c r="C5" t="n">
-        <v>1623.374424326178</v>
+        <v>829.8306665263415</v>
       </c>
       <c r="D5" t="n">
-        <v>1265.108725719427</v>
+        <v>829.8306665263415</v>
       </c>
       <c r="E5" t="n">
-        <v>879.3204731211831</v>
+        <v>444.0424139280972</v>
       </c>
       <c r="F5" t="n">
-        <v>468.3345683315756</v>
+        <v>437.0969131788938</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>369.4699017954936</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>72.4810365613864</v>
+        <v>239.8866855817394</v>
       </c>
       <c r="K5" t="n">
-        <v>155.0441911359788</v>
+        <v>643.3537986017849</v>
       </c>
       <c r="L5" t="n">
-        <v>294.3728469772319</v>
+        <v>1196.167056847984</v>
       </c>
       <c r="M5" t="n">
-        <v>926.0906579605437</v>
+        <v>1827.884867831296</v>
       </c>
       <c r="N5" t="n">
-        <v>1550.878957272188</v>
+        <v>2022.219080723278</v>
       </c>
       <c r="O5" t="n">
-        <v>2098.040162039265</v>
+        <v>2416.620883129034</v>
       </c>
       <c r="P5" t="n">
         <v>2527.35520837856</v>
@@ -4595,22 +4595,22 @@
         <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2406.124290896983</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="U5" t="n">
-        <v>2406.124290896983</v>
+        <v>1937.632725909846</v>
       </c>
       <c r="V5" t="n">
-        <v>2406.124290896983</v>
+        <v>1606.569838566275</v>
       </c>
       <c r="W5" t="n">
-        <v>2053.355635626869</v>
+        <v>1606.569838566275</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.33694126659</v>
+        <v>1606.569838566275</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.33694126659</v>
+        <v>1216.430506590463</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857312</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046042</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433529</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>264.2565034647829</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>152.1627644231985</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768661</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>100.6795268845183</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K6" t="n">
-        <v>430.1079311903282</v>
+        <v>118.8546062313602</v>
       </c>
       <c r="L6" t="n">
-        <v>934.4694710564468</v>
+        <v>623.2161460974787</v>
       </c>
       <c r="M6" t="n">
-        <v>1113.966807411052</v>
+        <v>1257.395129876517</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.14579119009</v>
+        <v>1891.574113655556</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>2430.912759670879</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339687</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4674,10 +4674,10 @@
         <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825064</v>
+        <v>2194.771343825065</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.63255633623</v>
+        <v>1966.632556336231</v>
       </c>
       <c r="V6" t="n">
         <v>1731.480448104488</v>
@@ -4686,10 +4686,10 @@
         <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170753</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.631292405799</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>244.6225706700496</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="C7" t="n">
-        <v>244.6225706700496</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="D7" t="n">
-        <v>217.0344679097588</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="E7" t="n">
         <v>69.12137432736571</v>
@@ -4723,7 +4723,7 @@
         <v>69.12137432736571</v>
       </c>
       <c r="J7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.181468027348</v>
+        <v>807.3206744058739</v>
       </c>
       <c r="U7" t="n">
-        <v>762.0292916050275</v>
+        <v>807.3206744058739</v>
       </c>
       <c r="V7" t="n">
-        <v>762.0292916050275</v>
+        <v>807.3206744058739</v>
       </c>
       <c r="W7" t="n">
-        <v>472.6121215680669</v>
+        <v>517.9035043689132</v>
       </c>
       <c r="X7" t="n">
-        <v>244.6225706700496</v>
+        <v>289.9139534708958</v>
       </c>
       <c r="Y7" t="n">
-        <v>244.6225706700496</v>
+        <v>69.12137432736571</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>956.3723032820415</v>
+        <v>1067.6853146838</v>
       </c>
       <c r="C8" t="n">
-        <v>956.3723032820415</v>
+        <v>1067.6853146838</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>1067.6853146838</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>681.8970620855553</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4835,19 +4835,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.577233583055</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X8" t="n">
-        <v>1733.111475321975</v>
+        <v>1457.824646659611</v>
       </c>
       <c r="Y8" t="n">
-        <v>1342.972143346163</v>
+        <v>1067.6853146838</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217532</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
         <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783101</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>643.8611643309004</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>474.9249814029935</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>324.8083419906577</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>176.8952484082646</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>176.8952484082646</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>176.8952484082646</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1173.922643467015</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1173.922643467015</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>919.2381552611278</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>629.8209852241671</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X10" t="n">
-        <v>401.8314343261497</v>
+        <v>864.6537434744305</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.8314343261497</v>
+        <v>643.8611643309004</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397185</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1031.260321675047</v>
+        <v>1016.580456911444</v>
       </c>
       <c r="C13" t="n">
-        <v>862.3241387471405</v>
+        <v>847.6442739835376</v>
       </c>
       <c r="D13" t="n">
-        <v>712.2074993348048</v>
+        <v>697.5276345712018</v>
       </c>
       <c r="E13" t="n">
-        <v>564.2944057524116</v>
+        <v>549.6145409888087</v>
       </c>
       <c r="F13" t="n">
-        <v>417.4044582545013</v>
+        <v>402.7245934908984</v>
       </c>
       <c r="G13" t="n">
-        <v>250.2083589693812</v>
+        <v>235.5284942057783</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026079</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820192</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648817</v>
+        <v>1647.011051783232</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.701365648817</v>
+        <v>1419.021500885214</v>
       </c>
       <c r="Y13" t="n">
-        <v>1212.908786505287</v>
+        <v>1198.228921741684</v>
       </c>
     </row>
     <row r="14">
@@ -5270,43 +5270,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>763.7541388327634</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048565</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910808</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487566</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831764</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625877</v>
+        <v>1683.601903741511</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588916</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.896109690899</v>
+        <v>1166.195182806533</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>945.4026036630031</v>
       </c>
     </row>
     <row r="17">
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>788.0191461778176</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2251.626625948255</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1962.551399292452</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1707.866911086565</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1418.449741049605</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1190.460190151587</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>969.6676110080573</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,22 +5759,22 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>701.0383482155643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611464</v>
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,16 +5987,16 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6023,16 +6023,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6078,16 +6078,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770319</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>634.334587849125</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6212,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,22 +6251,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>538.7363435406111</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1169.166938412398</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>941.1773875143809</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>720.3848083708508</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>139.234765840794</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908939</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X31" t="n">
-        <v>1237.37303605497</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y31" t="n">
-        <v>1016.58045691144</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="32">
@@ -6734,10 +6734,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,25 +6883,25 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656825</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942663</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580123</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7628,7 +7628,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565681</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150015</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942647</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580106</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7825,31 +7825,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8067,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>272.3887912055305</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>266.5573148152561</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.02915842250532</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.8021074946081</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>226.4977546351477</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>56.16526610770133</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>459.2743913378118</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933067</v>
+        <v>439.9214566933068</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>383.6629629763264</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>186.4490126143847</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>294.8344935184736</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.378394344275185</v>
+        <v>414.0588908408161</v>
       </c>
       <c r="H2" t="n">
         <v>326.7362573623985</v>
       </c>
       <c r="I2" t="n">
-        <v>162.5224906587259</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.6759134952029</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>168.0353954500439</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>152.206074479934</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>197.7741704971978</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.73277020259415</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>32.8926045706047</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>25.74504007796257</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.3131525023052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>205.0486432732467</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>167.2340587438927</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>145.1398665102891</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.75554125013274</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.4693302300329</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>24.63391537253455</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>22.63678056686646</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>100.4621571004294</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>152326.9268048897</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194636</v>
@@ -26323,22 +26323,22 @@
         <v>181607.9849302513</v>
       </c>
       <c r="F2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="G2" t="n">
         <v>181607.9849302514</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>181607.9849302513</v>
-      </c>
-      <c r="H2" t="n">
-        <v>181607.9849302514</v>
       </c>
       <c r="I2" t="n">
         <v>181607.9849302514</v>
       </c>
       <c r="J2" t="n">
+        <v>181607.9849302514</v>
+      </c>
+      <c r="K2" t="n">
         <v>181607.9849302513</v>
-      </c>
-      <c r="K2" t="n">
-        <v>181607.9849302514</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>497513.940765616</v>
+        <v>497513.9407656178</v>
       </c>
       <c r="C3" t="n">
-        <v>273432.6815691289</v>
+        <v>273432.6815691274</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230266</v>
+        <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155652.6364853842</v>
+        <v>155652.6364853845</v>
       </c>
       <c r="K3" t="n">
-        <v>11757.20312955465</v>
+        <v>11757.20312955435</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178690.4677814938</v>
+        <v>178690.4677814935</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719616</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719616</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719627</v>
+        <v>7507.368461719678</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719698</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719698</v>
+        <v>7507.3684617197</v>
       </c>
       <c r="J4" t="n">
+        <v>7507.368461719656</v>
+      </c>
+      <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="K4" t="n">
-        <v>7507.368461719674</v>
-      </c>
       <c r="L4" t="n">
-        <v>15498.22772481311</v>
+        <v>15498.22772481316</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.2277248132</v>
+        <v>15498.22772481316</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481312</v>
+        <v>15498.22772481316</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481316</v>
+        <v>15498.22772481315</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481315</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76542.73383253245</v>
+        <v>76542.73383253257</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905216</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-600420.2155747527</v>
+        <v>-600780.2985904716</v>
       </c>
       <c r="C6" t="n">
-        <v>-372523.8547888696</v>
+        <v>-372523.854788868</v>
       </c>
       <c r="D6" t="n">
-        <v>-333002.2472901521</v>
+        <v>-333002.247290152</v>
       </c>
       <c r="E6" t="n">
-        <v>-434507.3549799214</v>
+        <v>-434542.092905357</v>
       </c>
       <c r="F6" t="n">
-        <v>72978.08664462468</v>
+        <v>72943.34871918886</v>
       </c>
       <c r="G6" t="n">
-        <v>72978.08664462451</v>
+        <v>72943.34871918889</v>
       </c>
       <c r="H6" t="n">
-        <v>72978.08664462477</v>
+        <v>72943.34871918889</v>
       </c>
       <c r="I6" t="n">
-        <v>72978.08664462453</v>
+        <v>72943.3487191889</v>
       </c>
       <c r="J6" t="n">
-        <v>-82674.54984075969</v>
+        <v>-82709.28776619556</v>
       </c>
       <c r="K6" t="n">
-        <v>61220.88351506995</v>
+        <v>61186.14558963451</v>
       </c>
       <c r="L6" t="n">
-        <v>46644.33664710334</v>
+        <v>46644.33664710331</v>
       </c>
       <c r="M6" t="n">
-        <v>-66535.23908819177</v>
+        <v>-66535.23908819153</v>
       </c>
       <c r="N6" t="n">
-        <v>66072.05464073506</v>
+        <v>66072.05464073503</v>
       </c>
       <c r="O6" t="n">
         <v>66072.05464073503</v>
       </c>
       <c r="P6" t="n">
-        <v>66072.05464073503</v>
+        <v>66072.05464073506</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.4068602368305</v>
+        <v>309.4068602368318</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>594.9023730159465</v>
+        <v>594.902373015948</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.4068602368305</v>
+        <v>309.4068602368318</v>
       </c>
       <c r="C3" t="n">
-        <v>284.0692401012345</v>
+        <v>284.0692401012333</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794743</v>
+        <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>594.9023730159465</v>
+        <v>594.902373015948</v>
       </c>
       <c r="C4" t="n">
-        <v>45.68245908409222</v>
+        <v>45.68245908409085</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>594.9023730159463</v>
+        <v>594.9023730159474</v>
       </c>
       <c r="K4" t="n">
-        <v>45.68245908409222</v>
+        <v>45.68245908409108</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>594.9023730159465</v>
+        <v>594.902373015948</v>
       </c>
       <c r="K4" t="n">
-        <v>45.68245908409222</v>
+        <v>45.68245908409085</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>220.084050331281</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>71.73533428546402</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>66.26066847882788</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>94.36228535839038</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,16 +27506,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>101.2652744164911</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8975980913187</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>157.2665182564294</v>
       </c>
       <c r="I4" t="n">
-        <v>138.6714930639233</v>
+        <v>138.6714930639232</v>
       </c>
       <c r="J4" t="n">
-        <v>53.91234155828211</v>
+        <v>53.91234155828194</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.44160735593297</v>
+        <v>39.44160735593279</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>152.2060744799339</v>
       </c>
       <c r="S4" t="n">
-        <v>214.2931070357591</v>
+        <v>214.293107035759</v>
       </c>
       <c r="T4" t="n">
         <v>225.5616349313748</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2885958948282</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>57.9195372489371</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>345.9661626763706</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>309.3225932617927</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>70.5399904527889</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>25.09418201320175</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>121.3032512855245</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>111.1239007032909</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>258.9628986607123</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>259.7898884247594</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>22.85953193327001</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>59.07048693711513</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.131184035330079e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30460,13 +30460,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.243846674318916</v>
+        <v>1.243846674318921</v>
       </c>
       <c r="H2" t="n">
-        <v>12.7385447533686</v>
+        <v>12.73854475336865</v>
       </c>
       <c r="I2" t="n">
-        <v>47.95339891168005</v>
+        <v>47.95339891168024</v>
       </c>
       <c r="J2" t="n">
-        <v>105.5699316744752</v>
+        <v>105.5699316744756</v>
       </c>
       <c r="K2" t="n">
-        <v>158.2219613983949</v>
+        <v>158.2219613983956</v>
       </c>
       <c r="L2" t="n">
-        <v>196.2883340575825</v>
+        <v>196.2883340575833</v>
       </c>
       <c r="M2" t="n">
-        <v>218.4085923520015</v>
+        <v>218.4085923520024</v>
       </c>
       <c r="N2" t="n">
-        <v>221.9426717154101</v>
+        <v>221.942671715411</v>
       </c>
       <c r="O2" t="n">
-        <v>209.5741713476514</v>
+        <v>209.5741713476522</v>
       </c>
       <c r="P2" t="n">
-        <v>178.8667065754031</v>
+        <v>178.8667065754038</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.3214475513569</v>
+        <v>134.3214475513575</v>
       </c>
       <c r="R2" t="n">
-        <v>78.13378365568566</v>
+        <v>78.13378365568597</v>
       </c>
       <c r="S2" t="n">
-        <v>28.34415609104232</v>
+        <v>28.34415609104244</v>
       </c>
       <c r="T2" t="n">
-        <v>5.444938816831057</v>
+        <v>5.444938816831079</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09950773394551324</v>
+        <v>0.09950773394551364</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.66551664277356</v>
+        <v>0.6655166427735627</v>
       </c>
       <c r="H3" t="n">
-        <v>6.427489681523594</v>
+        <v>6.42748968152362</v>
       </c>
       <c r="I3" t="n">
-        <v>22.91362125338793</v>
+        <v>22.91362125338802</v>
       </c>
       <c r="J3" t="n">
-        <v>62.87672807888271</v>
+        <v>62.87672807888297</v>
       </c>
       <c r="K3" t="n">
-        <v>107.4663431447112</v>
+        <v>107.4663431447117</v>
       </c>
       <c r="L3" t="n">
-        <v>144.5017605285311</v>
+        <v>144.5017605285317</v>
       </c>
       <c r="M3" t="n">
-        <v>168.6267388290726</v>
+        <v>168.6267388290733</v>
       </c>
       <c r="N3" t="n">
-        <v>173.0897868413568</v>
+        <v>173.0897868413574</v>
       </c>
       <c r="O3" t="n">
-        <v>158.3433391251637</v>
+        <v>158.3433391251643</v>
       </c>
       <c r="P3" t="n">
-        <v>127.0844894433125</v>
+        <v>127.0844894433131</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.9526156635162</v>
+        <v>84.95261566351654</v>
       </c>
       <c r="R3" t="n">
-        <v>41.32041050483561</v>
+        <v>41.32041050483578</v>
       </c>
       <c r="S3" t="n">
-        <v>12.3616797462545</v>
+        <v>12.36167974625454</v>
       </c>
       <c r="T3" t="n">
-        <v>2.682499099600445</v>
+        <v>2.682499099600456</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04378398965615529</v>
+        <v>0.04378398965615546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5579467971483829</v>
+        <v>0.5579467971483851</v>
       </c>
       <c r="H4" t="n">
-        <v>4.960654251010172</v>
+        <v>4.960654251010191</v>
       </c>
       <c r="I4" t="n">
-        <v>16.77898186333501</v>
+        <v>16.77898186333508</v>
       </c>
       <c r="J4" t="n">
-        <v>39.44683855839067</v>
+        <v>39.44683855839083</v>
       </c>
       <c r="K4" t="n">
-        <v>64.8232733414212</v>
+        <v>64.82327334142146</v>
       </c>
       <c r="L4" t="n">
-        <v>82.95147200513323</v>
+        <v>82.95147200513357</v>
       </c>
       <c r="M4" t="n">
-        <v>87.46069657481422</v>
+        <v>87.46069657481458</v>
       </c>
       <c r="N4" t="n">
-        <v>85.38107669453396</v>
+        <v>85.3810766945343</v>
       </c>
       <c r="O4" t="n">
-        <v>78.86324365511872</v>
+        <v>78.86324365511905</v>
       </c>
       <c r="P4" t="n">
-        <v>67.48112899329166</v>
+        <v>67.48112899329193</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.72043589576141</v>
+        <v>46.7204358957616</v>
       </c>
       <c r="R4" t="n">
-        <v>25.08731689723546</v>
+        <v>25.08731689723556</v>
       </c>
       <c r="S4" t="n">
-        <v>9.723491001213178</v>
+        <v>9.723491001213217</v>
       </c>
       <c r="T4" t="n">
-        <v>2.383954496906726</v>
+        <v>2.383954496906736</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0304334616626391</v>
+        <v>0.03043346166263922</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>595.3857163736978</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>197.6412480909884</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32078,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>746.4857620875795</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>398.1179220955532</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8027404478649</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,28 +33026,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>170.9292585737929</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,16 +33497,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
-        <v>322.7581251332984</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,10 +33518,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,13 +33977,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33992,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M42" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.62064231986265</v>
+        <v>93.62064231986308</v>
       </c>
       <c r="K2" t="n">
-        <v>262.2775229245791</v>
+        <v>262.2775229245798</v>
       </c>
       <c r="L2" t="n">
-        <v>378.1831336380457</v>
+        <v>378.1831336380465</v>
       </c>
       <c r="M2" t="n">
-        <v>437.5758926175612</v>
+        <v>437.5758926175621</v>
       </c>
       <c r="N2" t="n">
-        <v>429.8765325308034</v>
+        <v>429.8765325308043</v>
       </c>
       <c r="O2" t="n">
-        <v>360.27614118871</v>
+        <v>360.2761411887109</v>
       </c>
       <c r="P2" t="n">
-        <v>269.4324189916163</v>
+        <v>269.4324189916169</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.3307483368121</v>
+        <v>124.3307483368127</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.13013675262486</v>
+        <v>62.13013675262511</v>
       </c>
       <c r="K3" t="n">
-        <v>234.0901411829308</v>
+        <v>234.0901411829313</v>
       </c>
       <c r="L3" t="n">
-        <v>376.7877260521161</v>
+        <v>376.7877260521167</v>
       </c>
       <c r="M3" t="n">
-        <v>492.1977686570542</v>
+        <v>492.1977686570549</v>
       </c>
       <c r="N3" t="n">
-        <v>521.090449101577</v>
+        <v>314.1368659635547</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6094139574487</v>
+        <v>409.6094139574494</v>
       </c>
       <c r="P3" t="n">
-        <v>259.6673968442384</v>
+        <v>311.57285066892</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>155.0481293133441</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>42.55378151553835</v>
+        <v>42.5537815155386</v>
       </c>
       <c r="L4" t="n">
-        <v>110.5414972654494</v>
+        <v>110.5414972654497</v>
       </c>
       <c r="M4" t="n">
-        <v>127.0445735366548</v>
+        <v>127.0445735366552</v>
       </c>
       <c r="N4" t="n">
-        <v>129.5132490737626</v>
+        <v>129.5132490737629</v>
       </c>
       <c r="O4" t="n">
-        <v>103.4483715691584</v>
+        <v>103.4483715691587</v>
       </c>
       <c r="P4" t="n">
-        <v>64.75968825818515</v>
+        <v>64.75968825818542</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>631.0992922339842</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>398.3856589957128</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>49.93206092577297</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>544.7865111265896</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>521.8736946105078</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>544.5140226420058</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>453.2516824516795</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>615.1440500042462</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010436</v>
+        <v>426.272427001044</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>259.5635423156791</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>310.2064960034205</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36908,10 +36908,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>44.09163190712619</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
-        <v>180.6240912112801</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,10 +37166,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37640,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M42" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
